--- a/Fase 2/Evidencias Proyecto/Sprint 1/Sprint Planning y Backlog.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint 1/Sprint Planning y Backlog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>Número</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Prioridad</t>
   </si>
   <si>
+    <t>Alta</t>
+  </si>
+  <si>
     <t>Como medico quiero poder crear el historial medico de mi paciente para registrar sus diagnosticos y tratamientos.</t>
   </si>
   <si>
@@ -62,7 +65,7 @@
     <t>H20</t>
   </si>
   <si>
-    <t>Como usuario	quiero poder encontrar fácilmente la información de contacto de la página 	para poder comunicarse en caso de ser necesario.</t>
+    <t>Como usuario quiero poder encontrar fácilmente la información de contacto de la página para poder comunicarse en caso de ser necesario.</t>
   </si>
   <si>
     <t>H02</t>
@@ -71,17 +74,14 @@
     <t>Como administrador quiero poder asignar roles a los usuarios para limitar su acceso a ciertas funciones del sistema.</t>
   </si>
   <si>
-    <t>H27</t>
-  </si>
-  <si>
-    <t>Como usuario	quiero que el sistema se adapte correctamente a cualquier dispositivo electrónico en el que lo esté visualizando para tener una experiencia de usuario consistente y cómoda.</t>
+    <t>Media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -98,6 +98,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -191,8 +195,20 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,8 +430,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="6.88"/>
     <col customWidth="1" min="2" max="2" width="14.88"/>
     <col customWidth="1" min="6" max="6" width="44.0"/>
+    <col customWidth="1" min="9" max="11" width="3.88"/>
+    <col customWidth="1" min="12" max="13" width="4.0"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -474,20 +493,20 @@
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9.0</v>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -507,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -519,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -527,10 +546,10 @@
       <c r="F8" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -555,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="90.63"/>
+    <col customWidth="1" min="6" max="6" width="16.38"/>
     <col customWidth="1" min="7" max="7" width="15.0"/>
   </cols>
   <sheetData>
@@ -572,11 +591,11 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -584,11 +603,11 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -597,22 +616,126 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
